--- a/data-raw/BDT_dict.xlsx
+++ b/data-raw/BDT_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\BDT\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F6B987-3A19-4D69-A9E2-AA58810597A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA0B03-2A05-4B18-974A-6500B69BCF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>key</t>
   </si>
@@ -275,6 +275,93 @@
   </si>
   <si>
     <t>**Beispiel {{no_example}}/2**\\\\War der Beep-Ton **auf** oder **neben** dem Beat?</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esi sveicināts pulsa precizitātes testā! </t>
+  </si>
+  <si>
+    <t>Šajā testā tiek noteiktas tavas pulsa uztveres spējas mūzikā.\\ Tu dzirdēsi dažus 10 sekunžu garus mūzikas fragmentus. Klausies uzmanīgi katra fragmenta 4. takti - gandrīz visi mūzikas instrumenti tur pārtrauks spēlēt un tu dzirdēsi klikšķi (augstu koka kastītes skaņu), kas vai nu sakrīt ar mūzikas fragmenta pulsu, vai arī nesakrīt.\\ Tev ir jānosaka, vai šis klikšķis skan IR pulsā vai NAV pulsā.</t>
+  </si>
+  <si>
+    <t>Nospied "Tālāk", lai dzirdētu dažus piemērus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piemērs - IR pulsā\\Šajā piemērā klikšķis IR pulsā. </t>
+  </si>
+  <si>
+    <t>Tavs pulsa uztveres IQ bija:</t>
+  </si>
+  <si>
+    <t>Piemērs - NAV pulsā\\Šajā piemērā klikšķis NAV pulsā.</t>
+  </si>
+  <si>
+    <t>Pulsa precizitātes tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja tu neesi pārliecināts par atbildi, mēģini uzminēt!\\ Tavai ērtībai un skaņas kvalitātes nodrošināšanai iesakām izmantot austiņas visa testa laikā. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Piemērs {{no_example}}/2**\\Vai klikšķis IR pulsā vai NAV pulsā? </t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Pareizi!</t>
+  </si>
+  <si>
+    <t>**{{feedback}}**\\Spied "Turpināt", lai izmēģinātu citu piemēru.</t>
+  </si>
+  <si>
+    <t>Nepareizi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**{{feedback}}**\\Spied "Atgriezties atpakaļ", lai izlasītu instrukcijas un vēlreiz izmēģinātu piemērus,\\vai spied "Tālāk", lai pārietu pie galvenā testa. </t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>Tagad tu pāriesi pie galvenā testa. Testa rezultāti tiks saglabāti.\\Tu nesaņemsi atgriezenisko saiti. Veiksmi!</t>
+  </si>
+  <si>
+    <t>**Jautājums {{num_question}} no {{test_length}}**</t>
+  </si>
+  <si>
+    <t>Tava pārlūkprogramma neatbalsta audio. Atvaino, šis tests nestrādās bez audio!</t>
+  </si>
+  <si>
+    <t>Klikšķis 4. taktī IR pulsā vai NAV pulsā.\\ Ja tu neesi pārliecināts par atbildi, mēģini uzminēt!</t>
+  </si>
+  <si>
+    <t>Tu esi pabeidzis Pulsa precizitātes testu!</t>
+  </si>
+  <si>
+    <t>Tālāk</t>
+  </si>
+  <si>
+    <t>Atgriezties atpakaļ</t>
+  </si>
+  <si>
+    <t>Esi sveicināts **Pulsa precizitātes testā**!\\ Šis tests pielāgojas tavam sniegumam. Ja tev viss izdodas, tev tiks doti sarežģītāki uzdevumi.\\Parasti šis pielāgošanās process dalībniekam netiek rādīts. Tomēr, lai to tev parādītu, mēs nodemonstrēsim tava snieguma rezultātus un atbilstošo grūtības pakāpi katrā izmēģinājuma reizē.</t>
+  </si>
+  <si>
+    <t>Tavi rezultāti ir saglabāti.</t>
+  </si>
+  <si>
+    <t>Vai tu kustējies un/vai pulsēji līdzi, lai veiktu uzdevumu? Atbilde uz šo jautājumu neietekmēs tavu punktu skaitu.</t>
+  </si>
+  <si>
+    <t>Nekad</t>
+  </si>
+  <si>
+    <t>Dažkārt</t>
+  </si>
+  <si>
+    <t>Vienmēr</t>
   </si>
 </sst>
 </file>
@@ -318,10 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,15 +751,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,313 +776,400 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/BDT_dict.xlsx
+++ b/data-raw/BDT_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\BDT\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA0B03-2A05-4B18-974A-6500B69BCF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B832421-41DE-4499-A879-72DB54A94BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
   <si>
     <t>key</t>
   </si>
@@ -362,6 +362,48 @@
   </si>
   <si>
     <t>Vienmēr</t>
+  </si>
+  <si>
+    <t>DE_F</t>
+  </si>
+  <si>
+    <t>Dieser Test erfasst Ihre Fähigkeit, den Beat (das Metrum/den Puls) in einem Musikausschnitt wahrzunehmen.\\ Ihnen werden einige Musikclips vorgespielt, die etwa 10 Sekunden lang sind. In jedem Clip wird die Musik gegen Ende kurz aussetzen und ein **Beep** wir stattdessen zu hören sein, der entweder zum Beat der Musik passt oder nicht.\\ Ihre Aufgabe ist es, zu entscheiden, ob der Beep-Ton genau **auf** (ON) oder leicht **neben** (OFF) dem Beat (dem Metrum/dem Puls) der Musik war.</t>
+  </si>
+  <si>
+    <t>Klicke Sie  'Weiter', um ein paar Beispiele zu hören.</t>
+  </si>
+  <si>
+    <t>Ihr Beatwahrnehmungs-IQ war:</t>
+  </si>
+  <si>
+    <t>Falls Sie sich unsicher über die richtige Antwort bist, entscheiden Sie einfach aus dem Bauch heraus.\\ Wir empfehlen, für den ganzen Test Kopfhörer zu benutzen.</t>
+  </si>
+  <si>
+    <t>**{{feedback}}**\\Klicke Sie 'Weiter' für ein weiteres Beispiel.</t>
+  </si>
+  <si>
+    <t>**{{feedback}}**\\Klicke Sie 'Zurück', um die Anweisungen erneut zu lesen und die Beispiele erneut zu versuchen,\\ oder klicken Sie  'Weiter', um zum  Haupttest zu gelangen.</t>
+  </si>
+  <si>
+    <t>Nun geht es mit dem Haupttest los, in dem Ihre Ergebnisse gespeichert werden.\\ Ab jetzt bekommen Sie keine Rückmeldung mehr. Viel Erfolg!</t>
+  </si>
+  <si>
+    <t>Ihr Browser unterstützt kein Audio. Dieser Test funktioniert nicht ohne Audio, sorry!</t>
+  </si>
+  <si>
+    <t>War der Beep im 4. Takt  **auf**  oder **neben** dem Beat?\\Wenn Sie sich nicht sicher sind, entscheiden Sie aus dem Bauch heraus.</t>
+  </si>
+  <si>
+    <t>Sie haben den Beat-Wahrnehmungs-Test abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Willkommen zum **Adaptiven Beat-Wahrnehmungs-Test**!\\Dieser Test passt sich an Ihre Leistung an. Je mehr richtige Antworten Sie geben, desto schwieriger werden die nächsten Stimuli.\\In echten Testanwendungen läuft dieser adaptiver Mechanismus unsichtbar im Hintergrund. Aber in dieser Demoanwendung werden Ihnen bei jedem Durchgang Ihre geschätzte Testfähigkeit ("ability") und die Schwierigkeit des Stimulus ("difficulty") angezeigt.</t>
+  </si>
+  <si>
+    <t>Ihre Ergebnisse wurden gespeichtert.</t>
+  </si>
+  <si>
+    <t>Haben Sie den Takt mitgeklopft oder sich im Takt bewegt, während Sie die Clips gehört haben? Die Antwort wird Ihr Ergebnis nicht beeinflussen.</t>
   </si>
 </sst>
 </file>
@@ -431,9 +473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -471,9 +513,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,26 +548,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,26 +583,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,10 +771,11 @@
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,8 +788,11 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -793,8 +805,11 @@
       <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,8 +822,11 @@
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -821,8 +839,11 @@
       <c r="D4" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -835,8 +856,11 @@
       <c r="D5" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -849,8 +873,11 @@
       <c r="D6" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -863,8 +890,11 @@
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -877,8 +907,11 @@
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -891,8 +924,11 @@
       <c r="D9" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -905,8 +941,11 @@
       <c r="D10" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -919,8 +958,11 @@
       <c r="D11" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -933,8 +975,11 @@
       <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -947,8 +992,11 @@
       <c r="D13" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -961,8 +1009,11 @@
       <c r="D14" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -975,8 +1026,11 @@
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -989,8 +1043,11 @@
       <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1003,8 +1060,11 @@
       <c r="D17" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1017,8 +1077,11 @@
       <c r="D18" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1031,8 +1094,11 @@
       <c r="D19" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1045,8 +1111,11 @@
       <c r="D20" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1059,8 +1128,11 @@
       <c r="D21" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -1073,8 +1145,11 @@
       <c r="D22" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -1087,8 +1162,11 @@
       <c r="D23" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -1101,8 +1179,11 @@
       <c r="D24" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -1115,8 +1196,11 @@
       <c r="D25" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1129,8 +1213,11 @@
       <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -1143,8 +1230,11 @@
       <c r="D27" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -1157,8 +1247,11 @@
       <c r="D28" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -1170,6 +1263,9 @@
       </c>
       <c r="D29" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
